--- a/Dummy Data/Dim_Account.xlsx
+++ b/Dummy Data/Dim_Account.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COLLEGE\BITS PILANI\SS 2nd Semester\DW\DW Project\Loan-Data-Warehouse\Dummy Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem2\Data Warehousing\assigment\Loan-Data-Warehouse\Dummy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF8609-2D76-45B8-BEF6-462F29438B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B91FD-8D4D-4C6F-964B-61F430ADD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>Account Key</t>
   </si>
@@ -217,6 +226,9 @@
   </si>
   <si>
     <t>2013-03-13</t>
+  </si>
+  <si>
+    <t>Lineage Key</t>
   </si>
 </sst>
 </file>
@@ -535,21 +547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +574,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,8 +591,15 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10100,'2013-05-02','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -590,8 +612,15 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G61" si="0">"INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10101,'2014-11-30','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -604,8 +633,15 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10102,'2011-02-03','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -618,8 +654,15 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10103,'2011-11-23','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -632,8 +675,15 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10104,'2013-05-02','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -646,8 +696,15 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10105,'2011-12-03','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -660,8 +717,15 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10106,'2014-01-22','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,8 +738,15 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10107,'2013-01-13','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -688,8 +759,15 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10108,'2011-01-27','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -702,8 +780,15 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10109,'2013-08-20','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -716,8 +801,15 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10110,'2012-03-09','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -730,8 +822,15 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10111,'2013-05-10','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -744,8 +843,15 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10112,'2011-07-07','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -758,8 +864,15 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10113,'2014-10-05','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -772,8 +885,15 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10114,'2015-06-11','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -786,8 +906,15 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10115,'2015-10-21','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -800,8 +927,15 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10116,'2012-01-15','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -814,8 +948,15 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10117,'2013-05-17','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -828,8 +969,15 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10118,'2014-09-06','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -842,8 +990,15 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10119,'2015-03-03','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -856,8 +1011,15 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10120,'2013-05-02','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -870,8 +1032,15 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10121,'2013-06-06','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -884,8 +1053,15 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10122,'2013-03-16','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -898,8 +1074,15 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10123,'2013-06-04','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -912,8 +1095,15 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10124,'2014-07-14','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -926,8 +1116,15 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10125,'2015-02-06','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -940,8 +1137,15 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10126,'2013-06-27','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -954,8 +1158,15 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10127,'2013-10-06','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -968,8 +1179,15 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10128,'2015-08-31','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -982,8 +1200,15 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10129,'2015-04-04','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -996,8 +1221,15 @@
       <c r="D32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10130,'2014-11-30','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1010,8 +1242,15 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10131,'2015-05-07','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1024,8 +1263,15 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10132,'2012-11-28','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1038,8 +1284,15 @@
       <c r="D35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10133,'2015-07-01','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1052,8 +1305,15 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10134,'2013-04-05','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1066,8 +1326,15 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10135,'2012-01-22','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1080,8 +1347,15 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10136,'2015-08-21','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1094,8 +1368,15 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10137,'2013-09-07','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1108,8 +1389,15 @@
       <c r="D40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10138,'2013-06-10','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1122,8 +1410,15 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10139,'2015-10-05','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1136,8 +1431,15 @@
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10140,'2012-01-19','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1150,8 +1452,15 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10141,'2011-08-08','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1164,8 +1473,15 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10142,'2014-03-20','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1178,8 +1494,15 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10143,'2014-11-28','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1192,8 +1515,15 @@
       <c r="D46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10144,'2011-12-20','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1206,8 +1536,15 @@
       <c r="D47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10145,'2014-02-09','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1220,8 +1557,15 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10146,'2011-12-20','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1234,8 +1578,15 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10147,'2011-07-28','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1248,8 +1599,15 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10148,'2011-09-10','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1262,8 +1620,15 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10149,'2015-01-07','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1276,8 +1641,15 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10150,'2015-06-02','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1290,8 +1662,15 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10151,'2015-09-28','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1304,8 +1683,15 @@
       <c r="D54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10152,'2012-09-24','Fixed Deposit',5);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1318,8 +1704,15 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10153,'2013-09-26','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1332,8 +1725,15 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10154,'2013-03-08','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1346,8 +1746,15 @@
       <c r="D57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10155,'2012-01-27','Corporate',5);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1360,8 +1767,15 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10156,'2014-10-22','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1374,8 +1788,15 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10157,'2014-08-11','Personal Current',5);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1388,8 +1809,15 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10158,'2012-12-30','Personal Savings',5);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1401,6 +1829,13 @@
       </c>
       <c r="D61" t="s">
         <v>5</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT into [dbo].[Dim_Account] ([_Source Key], [Account Open Date], [Account Type], [Lineage Key]) VALUES (10159,'2013-03-13','Fixed Deposit',5);</v>
       </c>
     </row>
   </sheetData>
